--- a/Beneficient/PDFFileNameData/FileName.xlsx
+++ b/Beneficient/PDFFileNameData/FileName.xlsx
@@ -401,7 +401,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>test_AllModulesVerify_03_September_2021_04_22PM.pdf</t>
+          <t>test_AllModulesVerify_03_September_2021_04_01PM.pdf</t>
         </is>
       </c>
     </row>

--- a/Beneficient/PDFFileNameData/FileName.xlsx
+++ b/Beneficient/PDFFileNameData/FileName.xlsx
@@ -1,33 +1,103 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BIDS\beneficienttest\Beneficient\PDFFileNameData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954792D0-1DA3-4080-BD00-F736F0D3A47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>test_VerifyingAllLinksFunds</t>
+  </si>
+  <si>
+    <t>test_VerifyingAllLinksFunds_09_September_2021_07_56PM.pdf</t>
+  </si>
+  <si>
+    <t>test_Funds</t>
+  </si>
+  <si>
+    <t>test_VerifyingAllLinksInvestments</t>
+  </si>
+  <si>
+    <t>test_VerifyingAllLinksInvestments_09_September_2021_08_06PM.pdf</t>
+  </si>
+  <si>
+    <t>test_Investments</t>
+  </si>
+  <si>
+    <t>This is smoke test case to verify all sections inside Investments modules are opening</t>
+  </si>
+  <si>
+    <t>test_VerifyingAllLinksLiquidTrusts</t>
+  </si>
+  <si>
+    <t>test_VerifyingAllLinksLiquidTrusts_09_September_2021_08_11PM.pdf</t>
+  </si>
+  <si>
+    <t>test_LiquidTrusts</t>
+  </si>
+  <si>
+    <t>This is smoke test case to verify all sections inside Liquid Trusts modules</t>
+  </si>
+  <si>
+    <t>test_VerifyingAllLinksQuarterlyNAVClose</t>
+  </si>
+  <si>
+    <t>test_VerifyingAllLinksQuarterlyNAVClose_09_September_2021_08_20PM.pdf</t>
+  </si>
+  <si>
+    <t>test_QuarterlyNAVClose</t>
+  </si>
+  <si>
+    <t>This is smoke test case to verify all sections inside Quarterly NAV Close</t>
+  </si>
+  <si>
+    <t>test_VerifyingAllLinksTransactions</t>
+  </si>
+  <si>
+    <t>test_VerifyingAllLinksTransactions_09_September_2021_08_24PM.pdf</t>
+  </si>
+  <si>
+    <t>test_Transactions</t>
+  </si>
+  <si>
+    <t>This is smoke test case to verify all sections inside Transactions</t>
+  </si>
+  <si>
+    <t>This is smoke test case to verify all sections inside Funds modules</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +116,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -385,27 +396,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>test_AllModulesVerify_03_September_2021_04_22PM.pdf</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Beneficient/PDFFileNameData/FileName.xlsx
+++ b/Beneficient/PDFFileNameData/FileName.xlsx
@@ -1,103 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BIDS\beneficienttest\Beneficient\PDFFileNameData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954792D0-1DA3-4080-BD00-F736F0D3A47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>test_VerifyingAllLinksFunds</t>
-  </si>
-  <si>
-    <t>test_VerifyingAllLinksFunds_09_September_2021_07_56PM.pdf</t>
-  </si>
-  <si>
-    <t>test_Funds</t>
-  </si>
-  <si>
-    <t>test_VerifyingAllLinksInvestments</t>
-  </si>
-  <si>
-    <t>test_VerifyingAllLinksInvestments_09_September_2021_08_06PM.pdf</t>
-  </si>
-  <si>
-    <t>test_Investments</t>
-  </si>
-  <si>
-    <t>This is smoke test case to verify all sections inside Investments modules are opening</t>
-  </si>
-  <si>
-    <t>test_VerifyingAllLinksLiquidTrusts</t>
-  </si>
-  <si>
-    <t>test_VerifyingAllLinksLiquidTrusts_09_September_2021_08_11PM.pdf</t>
-  </si>
-  <si>
-    <t>test_LiquidTrusts</t>
-  </si>
-  <si>
-    <t>This is smoke test case to verify all sections inside Liquid Trusts modules</t>
-  </si>
-  <si>
-    <t>test_VerifyingAllLinksQuarterlyNAVClose</t>
-  </si>
-  <si>
-    <t>test_VerifyingAllLinksQuarterlyNAVClose_09_September_2021_08_20PM.pdf</t>
-  </si>
-  <si>
-    <t>test_QuarterlyNAVClose</t>
-  </si>
-  <si>
-    <t>This is smoke test case to verify all sections inside Quarterly NAV Close</t>
-  </si>
-  <si>
-    <t>test_VerifyingAllLinksTransactions</t>
-  </si>
-  <si>
-    <t>test_VerifyingAllLinksTransactions_09_September_2021_08_24PM.pdf</t>
-  </si>
-  <si>
-    <t>test_Transactions</t>
-  </si>
-  <si>
-    <t>This is smoke test case to verify all sections inside Transactions</t>
-  </si>
-  <si>
-    <t>This is smoke test case to verify all sections inside Funds modules</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -116,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -396,91 +385,136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.54296875" bestFit="1" customWidth="1"/>
+    <col width="23.6328125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="54.54296875" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksFunds</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksFunds_09_September_2021_07_56PM.pdf</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>test_Funds</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>This is smoke test case to verify all sections inside Funds modules</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksInvestments</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksInvestments_09_September_2021_08_06PM.pdf</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>test_Investments</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>This is smoke test case to verify all sections inside Investments modules are opening</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksLiquidTrusts</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksLiquidTrusts_09_September_2021_08_11PM.pdf</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>test_LiquidTrusts</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>This is smoke test case to verify all sections inside Liquid Trusts modules</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksQuarterlyNAVClose</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksQuarterlyNAVClose_09_September_2021_08_20PM.pdf</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>test_QuarterlyNAVClose</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>This is smoke test case to verify all sections inside Quarterly NAV Close</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksTransactions</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksTransactions_10_September_2021_01_49PM.pdf</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>test_Transactions</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>This is smoke test case to verify all sections inside Transactions</t>
+        </is>
       </c>
     </row>
+    <row r="6"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/Beneficient/PDFFileNameData/FileName.xlsx
+++ b/Beneficient/PDFFileNameData/FileName.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>test_VerifyingAllLinksTransactions_10_September_2021_01_49PM.pdf</t>
+          <t>test_VerifyingAllLinksTransactions_10_September_2021_08_24AM.pdf</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">

--- a/Beneficient/PDFFileNameData/FileName.xlsx
+++ b/Beneficient/PDFFileNameData/FileName.xlsx
@@ -1,33 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BIDS\beneficienttest\Beneficient\PDFFileNameData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5183292-86E1-4910-80EC-DF1D68F100FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>test_VerifyingAllLinksFunds</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +59,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -385,134 +339,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col width="23.6328125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="54.54296875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>test_VerifyingAllLinksFunds</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>test_VerifyingAllLinksFunds_09_September_2021_07_56PM.pdf</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>test_Funds</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>This is smoke test case to verify all sections inside Funds modules</t>
-        </is>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>test_VerifyingAllLinksInvestments</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>test_VerifyingAllLinksInvestments_09_September_2021_08_06PM.pdf</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>test_Investments</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>This is smoke test case to verify all sections inside Investments modules are opening</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>test_VerifyingAllLinksLiquidTrusts</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>test_VerifyingAllLinksLiquidTrusts_09_September_2021_08_11PM.pdf</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>test_LiquidTrusts</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>This is smoke test case to verify all sections inside Liquid Trusts modules</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>test_VerifyingAllLinksQuarterlyNAVClose</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>test_VerifyingAllLinksQuarterlyNAVClose_09_September_2021_08_20PM.pdf</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>test_QuarterlyNAVClose</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>This is smoke test case to verify all sections inside Quarterly NAV Close</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>test_VerifyingAllLinksTransactions</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>test_VerifyingAllLinksTransactions_10_September_2021_08_24AM.pdf</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>test_Transactions</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>This is smoke test case to verify all sections inside Transactions</t>
-        </is>
-      </c>
-    </row>
-    <row r="6"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Beneficient/PDFFileNameData/FileName.xlsx
+++ b/Beneficient/PDFFileNameData/FileName.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BIDS\beneficienttest\Beneficient\PDFFileNameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5183292-86E1-4910-80EC-DF1D68F100FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9636D225-CC3D-43A7-B20A-91FFB4EE7532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>test_VerifyingAllLinksFunds</t>
+    <t>test_AllModulesVerify</t>
+  </si>
+  <si>
+    <t>test_AllModulesVerify_10_September_2021_05_15PM.pdf</t>
+  </si>
+  <si>
+    <t>AllMainModules</t>
   </si>
 </sst>
 </file>
@@ -340,21 +346,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Beneficient/PDFFileNameData/FileName.xlsx
+++ b/Beneficient/PDFFileNameData/FileName.xlsx
@@ -1,52 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BIDS\beneficienttest\Beneficient\PDFFileNameData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9636D225-CC3D-43A7-B20A-91FFB4EE7532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>test_AllModulesVerify</t>
-  </si>
-  <si>
-    <t>test_AllModulesVerify_10_September_2021_05_15PM.pdf</t>
-  </si>
-  <si>
-    <t>AllMainModules</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -65,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -345,31 +385,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col width="23.6328125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="54.54296875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="14.54296875" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>test_AllModulesVerify</t>
+        </is>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>test_AllModulesVerify_10_September_2021_06_09PM.pdf</t>
+        </is>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>AllMainModules</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>This is smoke test case to verify all Top Menu modules are opening with Green flag at the top section of each module</t>
+        </is>
       </c>
     </row>
+    <row r="2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Beneficient/PDFFileNameData/FileName.xlsx
+++ b/Beneficient/PDFFileNameData/FileName.xlsx
@@ -390,17 +390,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="23.6328125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="54.54296875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="34.81640625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="50.1796875" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="14.54296875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="21.6328125" bestFit="1" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -411,7 +412,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>test_AllModulesVerify_10_September_2021_06_09PM.pdf</t>
+          <t>test_AllModulesVerify_15_September_2021_06_07PM.pdf</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -424,8 +425,178 @@
           <t>This is smoke test case to verify all Top Menu modules are opening with Green flag at the top section of each module</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Send Only when Fail=No</t>
+        </is>
+      </c>
     </row>
-    <row r="2"/>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksFunds</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksFunds_15_September_2021_06_09PM.pdf</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>test_Funds</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>This is smoke test case to verify all sections inside Funds modules</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Send Only when Fail=No</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksInvestments</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksInvestments_15_September_2021_03_18PM.pdf</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>test_Investments</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>This is smoke test case to verify all sections inside Investments modules are opening</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Skipped</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Send Only when Fail=No</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksLiquidTrusts</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksLiquidTrusts_15_September_2021_06_11PM.pdf</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>test_LiquidTrusts</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>This is smoke test case to verify all sections inside Liquid Trusts modules</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Send Only when Fail=No</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksQuarterlyNAVClose</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksQuarterlyNAVClose_15_September_2021_06_12PM.pdf</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>test_QuarterlyNAVClose</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>This is smoke test case to verify all sections inside Quarterly NAV Close</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Send Only when Fail=No</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksTransactions</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksTransactions_15_September_2021_06_13PM.pdf</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>test_Transactions</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>This is smoke test case to verify all sections inside Transactions</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Send Only when Fail=No</t>
+        </is>
+      </c>
+    </row>
+    <row r="7"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Beneficient/PDFFileNameData/FileName.xlsx
+++ b/Beneficient/PDFFileNameData/FileName.xlsx
@@ -390,10 +390,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -412,7 +412,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>test_AllModulesVerify_15_September_2021_06_07PM.pdf</t>
+          <t>test_AllModulesVerify_15_September_2021_11_40PM.pdf</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -432,7 +432,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Send Only when Fail=No</t>
+          <t>Send Only when Fail=Yes</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>test_VerifyingAllLinksFunds_15_September_2021_06_09PM.pdf</t>
+          <t>test_VerifyingAllLinksFunds_16_September_2021_12_04AM.pdf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -464,7 +464,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Send Only when Fail=No</t>
+          <t>Send Only when Fail=Yes</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>test_VerifyingAllLinksInvestments_15_September_2021_03_18PM.pdf</t>
+          <t>test_VerifyingAllLinksInvestments_16_September_2021_12_11AM.pdf</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -491,12 +491,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Skipped</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Send Only when Fail=No</t>
+          <t>Send Only when Fail=Yes</t>
         </is>
       </c>
     </row>
@@ -508,7 +508,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>test_VerifyingAllLinksLiquidTrusts_15_September_2021_06_11PM.pdf</t>
+          <t>test_VerifyingAllLinksLiquidTrusts_16_September_2021_12_15AM.pdf</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Send Only when Fail=No</t>
+          <t>Send Only when Fail=Yes</t>
         </is>
       </c>
     </row>
@@ -540,7 +540,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>test_VerifyingAllLinksQuarterlyNAVClose_15_September_2021_06_12PM.pdf</t>
+          <t>test_VerifyingAllLinksQuarterlyNAVClose_16_September_2021_12_27AM.pdf</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Send Only when Fail=No</t>
+          <t>Send Only when Fail=Yes</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>test_VerifyingAllLinksTransactions_15_September_2021_06_13PM.pdf</t>
+          <t>test_VerifyingAllLinksTransactions_16_September_2021_12_29AM.pdf</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -592,11 +592,43 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Send Only when Fail=No</t>
+          <t>Send Only when Fail=Yes</t>
         </is>
       </c>
     </row>
-    <row r="7"/>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>test_DiagnosticFlagStatus</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>test_DiagnosticFlagStatus_16_September_2021_12_18AM.pdf</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>test_QuarterlyNAVClose</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>This is smoke test case to verify all Green flag in Diagnostic</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Send Only when Fail=Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Beneficient/PDFFileNameData/FileName.xlsx
+++ b/Beneficient/PDFFileNameData/FileName.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
@@ -459,7 +459,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Skipped</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -628,7 +628,6 @@
         </is>
       </c>
     </row>
-    <row r="8"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Beneficient/PDFFileNameData/FileName.xlsx
+++ b/Beneficient/PDFFileNameData/FileName.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
@@ -412,7 +412,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>test_AllModulesVerify_15_September_2021_11_40PM.pdf</t>
+          <t>test_AllModulesVerify_16_September_2021_01_43PM.pdf</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -628,6 +628,7 @@
         </is>
       </c>
     </row>
+    <row r="8"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Beneficient/PDFFileNameData/FileName.xlsx
+++ b/Beneficient/PDFFileNameData/FileName.xlsx
@@ -412,7 +412,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>test_AllModulesVerify_17_September_2021_11_40AM.pdf</t>
+          <t>test_AllModulesVerify_17_September_2021_03_01AM.pdf</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -427,7 +427,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Skipped</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">

--- a/Beneficient/PDFFileNameData/FileName.xlsx
+++ b/Beneficient/PDFFileNameData/FileName.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
@@ -412,7 +412,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>test_AllModulesVerify_16_September_2021_01_43PM.pdf</t>
+          <t>test_AllModulesVerify_17_September_2021_11_40AM.pdf</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Skipped</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Skipped</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Skipped</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Skipped</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>test_DiagnosticFlagStatus_16_September_2021_12_18AM.pdf</t>
+          <t>test_DiagnosticFlagStatus_17_September_2021_11_42AM.pdf</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -628,7 +628,6 @@
         </is>
       </c>
     </row>
-    <row r="8"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Beneficient/PDFFileNameData/FileName.xlsx
+++ b/Beneficient/PDFFileNameData/FileName.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BIDS\beneficienttest\Beneficient\PDFFileNameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6C424A-7E4F-4C91-9432-414E5D630FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1782C0-DF52-446C-8BC1-A157A2E6A632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5970" yWindow="1100" windowWidth="11750" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>test_AllModulesVerify</t>
   </si>
@@ -110,18 +110,6 @@
   </si>
   <si>
     <t>Fail</t>
-  </si>
-  <si>
-    <t>test_BeaconDataTransferTemplate</t>
-  </si>
-  <si>
-    <t>test_BeaconDataTransferTemplate_17_September_2021_08_42PM.pdf</t>
-  </si>
-  <si>
-    <t>test_Beacon</t>
-  </si>
-  <si>
-    <t>This is smoke test case to verify error in Funds listing at Beacon Data Transfer Template</t>
   </si>
 </sst>
 </file>
@@ -439,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -593,26 +581,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Beneficient/PDFFileNameData/FileName.xlsx
+++ b/Beneficient/PDFFileNameData/FileName.xlsx
@@ -1,133 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BIDS\beneficienttest\Beneficient\PDFFileNameData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1782C0-DF52-446C-8BC1-A157A2E6A632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="1100" windowWidth="11750" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5970" yWindow="1100" windowWidth="11750" windowHeight="7360" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
-  <si>
-    <t>test_AllModulesVerify</t>
-  </si>
-  <si>
-    <t>test_AllModulesVerify_17_September_2021_03_01AM.pdf</t>
-  </si>
-  <si>
-    <t>AllMainModules</t>
-  </si>
-  <si>
-    <t>This is smoke test case to verify all Top Menu modules are opening with Green flag at the top section of each module</t>
-  </si>
-  <si>
-    <t>Skipped</t>
-  </si>
-  <si>
-    <t>Send Only when Fail=Yes</t>
-  </si>
-  <si>
-    <t>test_VerifyingAllLinksFunds</t>
-  </si>
-  <si>
-    <t>test_VerifyingAllLinksFunds_16_September_2021_12_04AM.pdf</t>
-  </si>
-  <si>
-    <t>test_Funds</t>
-  </si>
-  <si>
-    <t>This is smoke test case to verify all sections inside Funds modules</t>
-  </si>
-  <si>
-    <t>test_VerifyingAllLinksInvestments</t>
-  </si>
-  <si>
-    <t>test_VerifyingAllLinksInvestments_16_September_2021_12_11AM.pdf</t>
-  </si>
-  <si>
-    <t>test_Investments</t>
-  </si>
-  <si>
-    <t>This is smoke test case to verify all sections inside Investments modules are opening</t>
-  </si>
-  <si>
-    <t>test_VerifyingAllLinksLiquidTrusts</t>
-  </si>
-  <si>
-    <t>test_VerifyingAllLinksLiquidTrusts_16_September_2021_12_15AM.pdf</t>
-  </si>
-  <si>
-    <t>test_LiquidTrusts</t>
-  </si>
-  <si>
-    <t>This is smoke test case to verify all sections inside Liquid Trusts modules</t>
-  </si>
-  <si>
-    <t>test_VerifyingAllLinksQuarterlyNAVClose</t>
-  </si>
-  <si>
-    <t>test_VerifyingAllLinksQuarterlyNAVClose_16_September_2021_12_27AM.pdf</t>
-  </si>
-  <si>
-    <t>test_QuarterlyNAVClose</t>
-  </si>
-  <si>
-    <t>This is smoke test case to verify all sections inside Quarterly NAV Close</t>
-  </si>
-  <si>
-    <t>test_VerifyingAllLinksTransactions</t>
-  </si>
-  <si>
-    <t>test_VerifyingAllLinksTransactions_16_September_2021_12_29AM.pdf</t>
-  </si>
-  <si>
-    <t>test_Transactions</t>
-  </si>
-  <si>
-    <t>This is smoke test case to verify all sections inside Transactions</t>
-  </si>
-  <si>
-    <t>test_DiagnosticFlagStatus</t>
-  </si>
-  <si>
-    <t>test_DiagnosticFlagStatus_17_September_2021_11_42AM.pdf</t>
-  </si>
-  <si>
-    <t>This is smoke test case to verify all Green flag in Diagnostic</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -146,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -426,161 +385,250 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="34.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col width="34.81640625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="50.1796875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="14.54296875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="21.6328125" bestFit="1" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>test_AllModulesVerify</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>test_AllModulesVerify_21_September_2021_08_54PM.pdf</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>AllMainModules</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>This is smoke test case to verify all Top Menu modules are opening with Green flag at the top section of each module</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Send Only when Fail=Yes</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksFunds</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksFunds_22_September_2021_03_30PM.pdf</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>test_Funds</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>This is smoke test case to verify all sections inside Funds modules</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Send Only when Fail=Yes</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksInvestments</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksInvestments_16_September_2021_12_11AM.pdf</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>test_Investments</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>This is smoke test case to verify all sections inside Investments modules are opening</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Skipped</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Send Only when Fail=Yes</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksLiquidTrusts</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksLiquidTrusts_16_September_2021_12_15AM.pdf</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>test_LiquidTrusts</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>This is smoke test case to verify all sections inside Liquid Trusts modules</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Skipped</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Send Only when Fail=Yes</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksQuarterlyNAVClose</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksQuarterlyNAVClose_16_September_2021_12_27AM.pdf</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>test_QuarterlyNAVClose</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>This is smoke test case to verify all sections inside Quarterly NAV Close</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Skipped</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Send Only when Fail=Yes</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksTransactions</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksTransactions_16_September_2021_12_29AM.pdf</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>test_Transactions</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>This is smoke test case to verify all sections inside Transactions</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Skipped</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Send Only when Fail=Yes</t>
+        </is>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>test_DiagnosticFlagStatus</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>test_DiagnosticFlagStatus_22_September_2021_06_33PM.pdf</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>test_QuarterlyNAVClose</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>This is smoke test case to verify all Green flag in Diagnostic</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Send Only when Fail=Yes</t>
+        </is>
       </c>
     </row>
+    <row r="8"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Beneficient/PDFFileNameData/FileName.xlsx
+++ b/Beneficient/PDFFileNameData/FileName.xlsx
@@ -412,7 +412,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>test_AllModulesVerify_21_September_2021_08_54PM.pdf</t>
+          <t>test_AllModulesVerify_24_September_2021_07_32PM.pdf</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -427,7 +427,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -444,7 +444,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>test_VerifyingAllLinksFunds_22_September_2021_03_30PM.pdf</t>
+          <t>test_VerifyingAllLinksFunds_29_September_2021_06_51PM.pdf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>test_VerifyingAllLinksInvestments_16_September_2021_12_11AM.pdf</t>
+          <t>test_VerifyingAllLinksInvestments_22_September_2021_08_50PM.pdf</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Skipped</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>test_VerifyingAllLinksLiquidTrusts_16_September_2021_12_15AM.pdf</t>
+          <t>test_VerifyingAllLinksLiquidTrusts_22_September_2021_08_54PM.pdf</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Skipped</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -540,7 +540,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>test_VerifyingAllLinksQuarterlyNAVClose_16_September_2021_12_27AM.pdf</t>
+          <t>test_VerifyingAllLinksQuarterlyNAVClose_22_September_2021_09_14PM.pdf</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Skipped</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>test_VerifyingAllLinksTransactions_16_September_2021_12_29AM.pdf</t>
+          <t>test_VerifyingAllLinksTransactions_22_September_2021_09_17PM.pdf</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Skipped</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>test_DiagnosticFlagStatus_22_September_2021_06_33PM.pdf</t>
+          <t>test_DiagnosticFlagStatus_22_September_2021_10_03PM.pdf</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">

--- a/Beneficient/PDFFileNameData/FileName.xlsx
+++ b/Beneficient/PDFFileNameData/FileName.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5970" yWindow="1100" windowWidth="11750" windowHeight="7360" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -393,7 +393,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -412,7 +412,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>test_AllModulesVerify_24_September_2021_07_32PM.pdf</t>
+          <t>test_AllModulesVerify_12_October_2021_09_07PM.pdf</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -444,7 +444,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>test_VerifyingAllLinksFunds_29_September_2021_06_51PM.pdf</t>
+          <t>test_VerifyingAllLinksFunds_01_October_2021_09_56PM.pdf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Skipped</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>test_VerifyingAllLinksInvestments_22_September_2021_08_50PM.pdf</t>
+          <t>test_VerifyingAllLinksInvestments_01_October_2021_10_04PM.pdf</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Skipped</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>test_VerifyingAllLinksLiquidTrusts_22_September_2021_08_54PM.pdf</t>
+          <t>test_VerifyingAllLinksLiquidTrusts_01_October_2021_10_08PM.pdf</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Skipped</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -540,7 +540,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>test_VerifyingAllLinksQuarterlyNAVClose_22_September_2021_09_14PM.pdf</t>
+          <t>test_VerifyingAllLinksQuarterlyNAVClose_01_October_2021_10_31PM.pdf</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Skipped</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>test_VerifyingAllLinksTransactions_22_September_2021_09_17PM.pdf</t>
+          <t>test_VerifyingAllLinksTransactions_01_October_2021_10_34PM.pdf</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Skipped</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>test_DiagnosticFlagStatus_22_September_2021_10_03PM.pdf</t>
+          <t>test_DiagnosticFlagStatus_11_October_2021_03_01PM.pdf</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Skipped</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">

--- a/Beneficient/PDFFileNameData/FileName.xlsx
+++ b/Beneficient/PDFFileNameData/FileName.xlsx
@@ -412,7 +412,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>test_AllModulesVerify_12_October_2021_09_07PM.pdf</t>
+          <t>test_AllModulesVerify_11_March_2022_09_13AM.pdf</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -444,7 +444,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>test_VerifyingAllLinksFunds_01_October_2021_09_56PM.pdf</t>
+          <t>test_VerifyingAllLinksFunds_11_March_2022_09_31AM.pdf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Skipped</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>test_VerifyingAllLinksInvestments_01_October_2021_10_04PM.pdf</t>
+          <t>test_VerifyingAllLinksInvestments_11_March_2022_09_31AM.pdf</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Skipped</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>test_VerifyingAllLinksLiquidTrusts_01_October_2021_10_08PM.pdf</t>
+          <t>test_VerifyingAllLinksLiquidTrusts_11_March_2022_09_36AM.pdf</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Skipped</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -540,7 +540,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>test_VerifyingAllLinksQuarterlyNAVClose_01_October_2021_10_31PM.pdf</t>
+          <t>test_VerifyingAllLinksQuarterlyNAVClose_11_March_2022_10_12AM.pdf</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Skipped</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>test_VerifyingAllLinksTransactions_01_October_2021_10_34PM.pdf</t>
+          <t>test_VerifyingAllLinksTransactions_11_March_2022_10_16AM.pdf</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Skipped</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>test_DiagnosticFlagStatus_11_October_2021_03_01PM.pdf</t>
+          <t>test_DiagnosticFlagStatus_11_March_2022_10_01AM.pdf</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Skipped</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
